--- a/Financial data.xlsx
+++ b/Financial data.xlsx
@@ -446,37 +446,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>회사명</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>주가</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>시가총액</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>BPS</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>단기차입금</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>장기차입금</t>
         </is>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -503,39 +503,3662 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>회사명</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>주가</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>시가총액</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>BPS</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>단기차입금</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>장기차입금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>78,500</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>4,686,279</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>39,126</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>161,482</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>19,997</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>4,686,279</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>819,003</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>75,362</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>1,481</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>43,496</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>한국전력</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>112,500</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>159,849</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>107,203</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>16,300</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>29,418</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>819,003</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>188,566</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>292,280</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>65,543</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>112,318</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>24,900</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>233,938</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>171,150</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>17,419</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>27,405</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>솔브레인홀딩스</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>159,849</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>7,945</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>51,096</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>1,080</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>268,000</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>213,309</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>106,555</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>188,566</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>148,178</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>110,071</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>202,249</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>84,539</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>233,938</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>76,663</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>32,400</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>37,900</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>257,745</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>91,810</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>3,115</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>34,209</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>7,945</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>712,082</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>141,557</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>4,434</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>13,362</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>51,300</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>252,624</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>359,842</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>11,396</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>10,357</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>213,309</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>112,992</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>67,475</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>POSCO</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>94,200</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>319,540</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>547,909</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>59,537</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>35,959</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>삼성생명</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>148,178</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>150,800</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>208,557</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>태영건설</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>39,150</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>4,765</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>16,455</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>2,513</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>4,813</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>202,249</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>101,619</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>335,800</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>10,300</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>338,884</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>76,576</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>45,764</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>21,606</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>SK텔레콤</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>76,663</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>216,901</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>322,826</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>1,100</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>20,241</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>157,500</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>74,790</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>40,153</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>23,648</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>11,494</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>257,745</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>31,547</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>577,231</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>13,240</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>24,466</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>KT</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>433,500</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>88,256</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>56,949</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>1,492</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>1,993</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>712,082</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>180,901</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>157,993</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>266,500</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>227,869</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>276,933</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>2,264</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>252,624</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>78,366</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>32,554</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>82,300</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>56,734</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>12,909</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>에스디바이오센서</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>112,992</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>58,245</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>12,228</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>키움증권</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>366,500</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>30,916</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>113,941</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>319,540</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>103,219</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>370,772</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>1,542</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>이마트</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>75,400</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>46,971</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>335,780</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>2,963</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>21,118</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>150,800</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>465,797</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>261,076</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>149,442</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>121,117</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>12,250</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>72,938</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>136,335</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>14,043</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>6,494</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>씨젠</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>4,765</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>36,558</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>14,962</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>214,500</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>349,618</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>27,112</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>4,336</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>1,872</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>101,619</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>40,427</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>86,338</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>83,600</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>16,534</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>176,721</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>1,818</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>12,295</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>338,884</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>35,739</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>19,572</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>태광산업</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>301,000</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>12,492</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>3,348,733</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>216,901</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>39,515</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>60,673</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>SKC</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>39,100</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>61,157</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>49,767</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>5,772</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>12,496</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>LG유플러스</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>74,790</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>63,527</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>16,894</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>12,188</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>금호석유</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>355,000</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>62,002</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>107,076</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>3,691</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>2,051</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>31,547</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>30,759</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>19,844</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>메리츠증권</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>33,800</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>33,473</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>6,180</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>삼성카드</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>88,256</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>40,551</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>64,670</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>824,000</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>143,412</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>79,262</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>4,299</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>12,982</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>CJ제일제당</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>180,901</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>70,454</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>344,361</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>15,762</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>24,007</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>해성산업</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>1,459,000</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>4,309</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>28,588</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>2,378</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>2,158</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>227,869</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>37,699</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>51,124</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>3,855</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>12,899</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>10,850</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>130,455</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>104,704</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>삼성물산</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>78,366</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>264,445</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>173,173</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>13,439</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>7,181</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>8,930</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>23,199</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>49,157</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온헬스케어</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>56,734</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>166,460</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>104.73</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>13,483</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>2,172</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>LX인터내셔널</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>56,400</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>11,977</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>37,659</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>2,110</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>5,117</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>코웨이</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>58,245</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>63,320</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>21,458</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>4,201</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>118,000</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>141,214</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>86,450</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>30,916</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>588,869</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>226.80</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>70,428</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>5,333</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>BNK금융지주</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>547,000</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>25,260</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>27,012</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>코오롱인더</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>103,219</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>21,826</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>75,296</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>9,814</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>3,831</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>HDC현대산업개발</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>168,500</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>20,464</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>42,304</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>7,848</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>1,269</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>삼성엔지니어링</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>46,971</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>45,766</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>8,799</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>218,000</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>509,545</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>76.91</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>193,175</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>15,030</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>12,552</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>465,797</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>27,851</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>147,385</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>신세계</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>194,500</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>26,188</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>360,794</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>4,418</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>2,873</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>72,938</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>31,892</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>25,723</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>9,802</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>3,966</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>29,487</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>13,963</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>유한양행</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>36,558</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>43,103</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>28,579</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>한국금융지주</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>253,500</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>53,441</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>96,573</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>349,618</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>53,724</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>113,760</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>6,538</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>SK가스</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>57,100</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>10,753</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>208,702</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>8,154</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>GS리테일</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>40,427</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>36,965</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>29,449</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>1,246</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>1,608</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>에코프로</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>78,900</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>13,465</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>32.73</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>-10,621</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>1,376</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>2,533</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>16,534</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>15,979</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>94,065</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>65,139</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>11,144</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>부산가스</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>12,700</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>6,721</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr"/>
+      <c r="E76" s="0" t="inlineStr"/>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>대우건설</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>35,739</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>30,964</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>7,127</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>4,713</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>4,184</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>대신증권</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>1,122,000</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>9,088</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>26,732</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>신영증권</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>12,492</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>6,035</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>91,201</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>CJ ENM</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>44,250</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>35,766</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>173,754</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>2,644</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>1,229</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>39,515</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>27,083</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>19,065</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>롯데정밀화학</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>161,500</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>18,705</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>64,394</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>SGC이테크건설</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>61,157</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>1,498</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>76,257</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>서울가스</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>14,550</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>6,850</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>216,673</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>코리안리</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>63,527</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>11,471</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>21,124</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>DL건설</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>203,500</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>7,388</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr"/>
+      <c r="E86" s="0" t="inlineStr"/>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>동원개발</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>62,002</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>5,848</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr"/>
+      <c r="E87" s="0" t="inlineStr"/>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>JB금융지주</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>25,500</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>15,246</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>19,399</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>30,759</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>46,215</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>42,634</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>7,181</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>오뚜기</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>4,910</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>19,792</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>444,165</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>2,471</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>1,897</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>DGB금융지주</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>33,473</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>15,984</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>30,054</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>쌍용C&amp;E</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>35,000</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>40,107</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>3,303</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>3,785</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>에스원</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>40,551</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>30,627</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>39,459</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>더블유게임즈</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>192,000</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>11,190</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>42,332</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>메리츠금융지주</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>143,412</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>33,637</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>24,183</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>KCC글라스</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>468,000</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>11,866</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr"/>
+      <c r="E96" s="0" t="inlineStr"/>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>한국콜마홀딩스</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>70,454</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>5,397</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>30,148</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>한화</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>16,350</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>22,375</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>44,354</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>40,387</t>
+        </is>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>35,732</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>동양생명</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>4,309</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>8,665</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr"/>
+      <c r="E99" s="0" t="inlineStr"/>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>서희건설</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>44,050</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>5,044</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>2,449</t>
+        </is>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>1,222</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>605</t>
         </is>
       </c>
     </row>
